--- a/unittest/打标签结果.xlsx
+++ b/unittest/打标签结果.xlsx
@@ -23,10 +23,10 @@
     <t>处理结果</t>
   </si>
   <si>
-    <t>SH-A-02</t>
+    <t>zhengshutong9060</t>
   </si>
   <si>
-    <t>失败</t>
+    <t>成功</t>
   </si>
 </sst>
 </file>
